--- a/a2/libclient/mydata.xlsx
+++ b/a2/libclient/mydata.xlsx
@@ -8,13 +8,57 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noam/Desktop/WILLIAM AND MARY/SPRING 2021/Algorithms/repo_ncstanislawski/a2/libclient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D1DB7C-5369-0C46-8809-4B05538D3EF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A49AA35B-F92F-F342-A22D-CE8BC428AD81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400"/>
+    <workbookView xWindow="-60" yWindow="500" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="mydata" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">mydata!$A$2:$A$31</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">mydata!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">mydata!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">mydata!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">mydata!$D$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">mydata!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">mydata!$A$2:$A$31</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">mydata!$B$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">mydata!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">mydata!$C$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">mydata!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">mydata!$D$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">mydata!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">mydata!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">mydata!$A$2:$A$31</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">mydata!$B$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">mydata!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">mydata!$C$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">mydata!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">mydata!$D$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">mydata!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">mydata!$A$2:$A$31</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">mydata!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">mydata!$C$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">mydata!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">mydata!$C$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">mydata!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">mydata!$D$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">mydata!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">mydata!$A$2:$A$31</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">mydata!$B$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">mydata!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">mydata!$C$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">mydata!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">mydata!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">mydata!$D$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">mydata!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">mydata!$D$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">mydata!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">mydata!$A$2:$A$31</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">mydata!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">mydata!$B$2:$B$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>n</t>
   </si>
@@ -55,6 +99,36 @@
   </si>
   <si>
     <t>log(TC)</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>logarithmic</t>
+  </si>
+  <si>
+    <t>Guessed growth rate</t>
+  </si>
+  <si>
+    <t>TA(2n/n)</t>
+  </si>
+  <si>
+    <t>TB(2n/n)</t>
+  </si>
+  <si>
+    <t>TC(2n/n)</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|T_A(n) − TA(n) | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">|T_B(n) − TB(n) | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">|T_C(n) − TC(n) | </t>
   </si>
 </sst>
 </file>
@@ -390,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -616,6 +690,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -661,7 +744,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -672,6 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -728,6 +812,3489 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Algorithm Runtimes by</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> input value</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mydata!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TA(n)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mydata!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mydata!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1073</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43E1-D341-AFA2-769C2E47C275}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mydata!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TB(n)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mydata!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mydata!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-43E1-D341-AFA2-769C2E47C275}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mydata!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC(n)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mydata!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mydata!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2411</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4090</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5175</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8257</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14232</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18171</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19929</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20973</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25108</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20297</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22222</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25127</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27798</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31209</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34570</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38193</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-43E1-D341-AFA2-769C2E47C275}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1529326304"/>
+        <c:axId val="1529581856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1529326304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3050"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Input</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> value</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1529581856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1529581856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="44000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t>runtime in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1529326304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Runtime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> Logarithms</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mydata!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log(TA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mydata!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>6.6438600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6438600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2288200000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6438600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9657800000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2288200000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4512099999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6438600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8137799999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9657800000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.103300000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.2288</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.3443</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.4512</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.550700000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.6439</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.731299999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.813800000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.8918</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.9658</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.036199999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.103300000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.167400000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.2288</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.287699999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.3443</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.3987</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.4512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.501799999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.550700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mydata!$F$2:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1699299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1699299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3923199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5235599999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4918500000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9068899999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.32193</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6147099999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0443899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.32193</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6438600000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9483699999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0389199999999992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7176799999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4716799999999992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.8517499999999991</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.9628999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.067399999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.1059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.6546400000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.6865000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.4512099999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.5430299999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6275300000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.7414699999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.91737</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.9556500000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.0168</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.149699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDC2-6746-A6D1-52CD3BA21683}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mydata!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log(TB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mydata!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>6.6438600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6438600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2288200000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6438600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9657800000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2288200000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4512099999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6438600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8137799999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9657800000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.103300000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.2288</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.3443</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.4512</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.550700000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.6439</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.731299999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.813800000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.8918</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.9658</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.036199999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.103300000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.167400000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.2288</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.287699999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.3443</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.3987</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.4512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.501799999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.550700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mydata!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.32193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.80735</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.80735</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.80735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3923199999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7004400000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0443899999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3923199999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7004400000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2667900000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3575499999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0223699999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7681800000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.0112300000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2479300000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.2191700000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.6147100000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.8579800000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.0223700000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.8073499999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.8826400000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.0443899999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.0552799999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.5622399999999992</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.2431699999999992</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.3531499999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4838199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FDC2-6746-A6D1-52CD3BA21683}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mydata!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log(TC)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mydata!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>6.6438600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6438600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2288200000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6438600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9657800000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2288200000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4512099999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6438600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8137799999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9657800000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.103300000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.2288</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.3443</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.4512</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.550700000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.6439</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.731299999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.813800000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.8918</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.9658</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.036199999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.103300000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.167400000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.2288</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.287699999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.3443</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.3987</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.4512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.501799999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.550700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mydata!$H$2:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.32193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8073499999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1395499999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9483699999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6220499999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1724300000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7448300000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.270300000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.809799999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.2354</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.6974</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.9979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.337300000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.5541</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.0114</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.167299999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.796900000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.1494</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.2826</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.356199999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.6159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.308999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.4397</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.617000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.762700000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.9297</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.077199999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.221</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.363899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FDC2-6746-A6D1-52CD3BA21683}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1640111680"/>
+        <c:axId val="1520330736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1640111680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>log(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1520330736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1520330736"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> runtimes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1640111680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>109359</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>194027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>560914</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>91016</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A674C5AB-F9CF-C14F-89F1-BA9A16482952}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>719666</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>32453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>536222</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>197554</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E40E60-FDDB-8042-B660-1897995674F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1027,15 +4594,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1060,8 +4633,17 @@
       <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -1087,8 +4669,20 @@
       <c r="H2" s="3">
         <v>1</v>
       </c>
+      <c r="I2">
+        <f>ABS(((7.96*10^-4) *  A2^1.72305) - B2)</f>
+        <v>0.223376790114163</v>
+      </c>
+      <c r="J2">
+        <f>ABS(((4.935*10^-6) *  A2^2.31) - C2)</f>
+        <v>0.20572504074261092</v>
+      </c>
+      <c r="K2">
+        <f>ABS(((9.313*10^-7) *  A2^3.095) - D2)</f>
+        <v>0.55758708280680169</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>200</v>
       </c>
@@ -1113,8 +4707,20 @@
       <c r="H3" s="3">
         <v>4.32193</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I31" si="0">ABS(((7.96*10^-4) *  A3^1.72305) - B3)</f>
+        <v>1.6598860552729793</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J31" si="1">ABS(((4.935*10^-6) *  A3^2.31) - C3)</f>
+        <v>0.97984433168449714</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K31" si="2">ABS(((9.313*10^-7) *  A3^3.095) - D3)</f>
+        <v>7.6752692721964753</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>300</v>
       </c>
@@ -1139,8 +4745,20 @@
       <c r="H4" s="3">
         <v>5.8073499999999996</v>
       </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>3.2389637870656571</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>2.3972212316341501</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>12.770532462247466</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>400</v>
       </c>
@@ -1165,8 +4783,20 @@
       <c r="H5" s="3">
         <v>7.1395499999999998</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>3.2321827596346253</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>1.9412206514114718</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>35.691051569029199</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>500</v>
       </c>
@@ -1191,8 +4821,20 @@
       <c r="H6" s="3">
         <v>7.9483699999999997</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>10.406283770657318</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>5.5295230102720012</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>36.911748600712031</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>600</v>
       </c>
@@ -1217,8 +4859,20 @@
       <c r="H7" s="3">
         <v>8.6220499999999998</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>3.7311409505254787</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>1.0932604784765712</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>24.624808916792347</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>700</v>
       </c>
@@ -1243,8 +4897,20 @@
       <c r="H8" s="3">
         <v>9.1724300000000003</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>3.5563935495372689</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>2.5726184001745374</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>18.207009129360699</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>800</v>
       </c>
@@ -1269,8 +4935,20 @@
       <c r="H9" s="3">
         <v>9.7448300000000003</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1.4215422140040346E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.91436915704986887</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>41.814759816122091</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>900</v>
       </c>
@@ -1295,8 +4973,20 @@
       <c r="H10" s="3">
         <v>10.270300000000001</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1.2302690396381877E-3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>7.0331873056666439E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>60.597703904438049</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1000</v>
       </c>
@@ -1321,8 +5011,20 @@
       <c r="H11" s="3">
         <v>10.809799999999999</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>14.493181542009353</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>3.6621852872542604E-3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>0.10395165471891232</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1100</v>
       </c>
@@ -1347,8 +5049,20 @@
       <c r="H12" s="3">
         <v>11.2354</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>21.520740066415641</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.34850215188943423</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>1.5284207143849926E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1200</v>
       </c>
@@ -1373,8 +5087,20 @@
       <c r="H13" s="3">
         <v>11.6974</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>39.122127736592688</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>2.3374637578399415E-3</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>164.8650865036775</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1300</v>
       </c>
@@ -1399,8 +5125,20 @@
       <c r="H14" s="3">
         <v>11.9979</v>
       </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>62.331355701221895</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>9.8856592761364936E-4</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>46.622609102898423</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1400</v>
       </c>
@@ -1425,8 +5163,20 @@
       <c r="H15" s="3">
         <v>12.337300000000001</v>
       </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>53.178986915859497</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>9.3782674360705442</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>89.239863370471539</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1500</v>
       </c>
@@ -1451,8 +5201,20 @@
       <c r="H16" s="3">
         <v>12.5541</v>
       </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>184.69271436567473</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>22.833766919122851</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>282.39622307422542</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1600</v>
       </c>
@@ -1477,8 +5239,20 @@
       <c r="H17" s="3">
         <v>13.0114</v>
       </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>90.897809176022122</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>15.395398855328892</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>568.51185111612176</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1700</v>
       </c>
@@ -1503,8 +5277,20 @@
       <c r="H18" s="3">
         <v>13.167299999999999</v>
       </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>168.81747440142607</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>14.094903263881889</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>76.322410100814523</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1800</v>
       </c>
@@ -1529,8 +5315,20 @@
       <c r="H19" s="3">
         <v>13.796900000000001</v>
       </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>175.47312886117635</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>11.29265253362837</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>3161.7352777075866</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1900</v>
       </c>
@@ -1555,8 +5353,20 @@
       <c r="H20" s="3">
         <v>14.1494</v>
       </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>717.88463805927199</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>112.98455900593032</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>5084.2442184292195</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2000</v>
       </c>
@@ -1581,8 +5391,20 @@
       <c r="H21" s="3">
         <v>14.2826</v>
       </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>714.07050437918861</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>183.71094625305295</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>4590.692523100699</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2100</v>
       </c>
@@ -1607,8 +5429,20 @@
       <c r="H22" s="3">
         <v>14.356199999999999</v>
       </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>384.04802545408535</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>1.1383550173105164</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>3134.5005157679443</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2200</v>
       </c>
@@ -1633,8 +5467,20 @@
       <c r="H23" s="3">
         <v>14.6159</v>
       </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>366.83342732844233</v>
+      </c>
+      <c r="J23">
+        <f>ABS(((4.935*10^-6) *  A23^2.31) - C23)</f>
+        <v>0.41263520812009347</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>4507.0238133095445</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2300</v>
       </c>
@@ -1659,8 +5505,20 @@
       <c r="H24" s="3">
         <v>14.308999999999999</v>
       </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>206.44197740801144</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>63.659325775876994</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>3342.4438754239964</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2400</v>
       </c>
@@ -1685,8 +5543,20 @@
       <c r="H25" s="3">
         <v>14.4397</v>
       </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>214.88808102651012</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>81.376762271656446</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>4745.6681939001282</v>
+      </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2500</v>
       </c>
@@ -1711,8 +5581,20 @@
       <c r="H26" s="3">
         <v>14.617000000000001</v>
       </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>221.18536460033727</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>84.761532259357637</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>5472.4717947320933</v>
+      </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2600</v>
       </c>
@@ -1737,8 +5619,20 @@
       <c r="H27" s="3">
         <v>14.762700000000001</v>
       </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>246.34674770455854</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>115.83487371237749</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>6750.7321831997178</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2700</v>
       </c>
@@ -1763,8 +5657,20 @@
       <c r="H28" s="3">
         <v>14.9297</v>
       </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>316.38450592198319</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>38.617445988865711</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>7620.3797256820908</v>
+      </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2800</v>
       </c>
@@ -1789,8 +5695,20 @@
       <c r="H29" s="3">
         <v>15.077199999999999</v>
       </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>300.31032594948749</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>150.12936699032264</v>
+      </c>
+      <c r="K29">
+        <f>ABS(((9.313*10^-7) *  A29^3.095) - D29)</f>
+        <v>8885.3958045016698</v>
+      </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2900</v>
       </c>
@@ -1815,8 +5733,20 @@
       <c r="H30" s="3">
         <v>15.221</v>
       </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>300.1353541618239</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>164.39024665953889</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>10247.811103368847</v>
+      </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>3000</v>
       </c>
@@ -1840,9 +5770,299 @@
       </c>
       <c r="H31" s="6">
         <v>15.363899999999999</v>
+      </c>
+      <c r="I31">
+        <f>ABS(((7.96*10^-4) *  A31^1.72305) - B31)</f>
+        <v>355.87023961150487</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>173.41921729527849</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>11629.704009829729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33">
+        <f>AVERAGE(I2:I31)</f>
+        <v>172.69925299485547</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33:K33" si="3">AVERAGE(J2:J31)</f>
+        <v>41.982995332902846</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>2687.9910262945682</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f>B3/B2</f>
+        <v>4.5</v>
+      </c>
+      <c r="G36" t="e">
+        <f>C3/C2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36">
+        <f>D3/D2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <f>B5/B3</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G37">
+        <f>C5/C3</f>
+        <v>3.5</v>
+      </c>
+      <c r="H37">
+        <f>D5/D3</f>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <f>B7/B4</f>
+        <v>2.5</v>
+      </c>
+      <c r="G38">
+        <f>C7/C4</f>
+        <v>2.8</v>
+      </c>
+      <c r="H38">
+        <f>D7/D4</f>
+        <v>7.0357142857142856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f>B9/B5</f>
+        <v>3.8095238095238093</v>
+      </c>
+      <c r="G39">
+        <f>C9/C5</f>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="H39">
+        <f>D9/D5</f>
+        <v>6.0851063829787231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f>B11/B6</f>
+        <v>2.8695652173913042</v>
+      </c>
+      <c r="G40">
+        <f>C11/C6</f>
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <f>D11/D6</f>
+        <v>7.2672064777327936</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f>B13/B7</f>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="G41">
+        <f>C13/C7</f>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="H41">
+        <f>D13/D7</f>
+        <v>8.4289340101522843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <f>B15/B8</f>
+        <v>4.3833333333333337</v>
+      </c>
+      <c r="G42">
+        <f>C15/C8</f>
+        <v>3.9047619047619047</v>
+      </c>
+      <c r="H42">
+        <f>D15/D8</f>
+        <v>8.9688041594454067</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <f>B17/B9</f>
+        <v>4.4375</v>
+      </c>
+      <c r="G43">
+        <f>C17/C9</f>
+        <v>4.1923076923076925</v>
+      </c>
+      <c r="H43">
+        <f>D17/D9</f>
+        <v>9.6235431235431239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <f>B19/B10</f>
+        <v>5.091836734693878</v>
+      </c>
+      <c r="G44">
+        <f>C19/C10</f>
+        <v>4.6060606060606064</v>
+      </c>
+      <c r="H44">
+        <f>D19/D10</f>
+        <v>11.523886639676114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <f>B21/B11</f>
+        <v>8.3484848484848477</v>
+      </c>
+      <c r="G45">
+        <f>C21/C11</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="H45">
+        <f>D21/D11</f>
+        <v>11.102506963788301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f>B23/B12</f>
+        <v>5.15</v>
+      </c>
+      <c r="G46">
+        <f>C23/C12</f>
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <f>D23/D12</f>
+        <v>10.41393612608876</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <f>B25/B13</f>
+        <v>3.73</v>
+      </c>
+      <c r="G47">
+        <f>C25/C13</f>
+        <v>3.6875</v>
+      </c>
+      <c r="H47">
+        <f>D25/D13</f>
+        <v>6.6913580246913584</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f>B27/B14</f>
+        <v>3.4655870445344128</v>
+      </c>
+      <c r="G48">
+        <f>C27/C14</f>
+        <v>3.4545454545454546</v>
+      </c>
+      <c r="H48">
+        <f>D27/D14</f>
+        <v>6.796577017114914</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f>B29/B15</f>
+        <v>3.7756653992395437</v>
+      </c>
+      <c r="G49">
+        <f>C29/C15</f>
+        <v>3.6951219512195124</v>
+      </c>
+      <c r="H49">
+        <f>D29/D15</f>
+        <v>6.6801932367149757</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <f>B31/B16</f>
+        <v>2.6983372921615203</v>
+      </c>
+      <c r="G50">
+        <f>C31/C16</f>
+        <v>2.7538461538461538</v>
+      </c>
+      <c r="H50">
+        <f>D31/D16</f>
+        <v>7.0119720651812436</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51">
+        <f>AVERAGE(F36:F50)</f>
+        <v>4.1025074304760283</v>
+      </c>
+      <c r="G51">
+        <f>AVERAGE(G37:G50)</f>
+        <v>4.1580850986992104</v>
+      </c>
+      <c r="H51">
+        <f>AVERAGE(H36:H50)</f>
+        <v>8.3119825675214845</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>